--- a/近物实验1/热电子发射规律/荷质比.xlsx
+++ b/近物实验1/热电子发射规律/荷质比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhuanZ\Desktop\Surviving-LZU-Physics\近物实验1\热电子发射规律\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A79D974-3BF8-45BE-A510-42E0FAB11777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6075394-1B12-476D-904B-223C9EB28F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Is</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>Ic^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,12 +401,12 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M5"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -462,8 +466,8 @@
       <c r="K2">
         <v>171</v>
       </c>
-      <c r="M2">
-        <v>2</v>
+      <c r="M2" t="s">
+        <v>9</v>
       </c>
       <c r="N2">
         <v>87.28</v>
@@ -473,7 +477,7 @@
         <v>7.6177984000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+8</f>
         <v>16</v>
@@ -513,7 +517,7 @@
         <v>8.3594448999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="1">A3+8</f>
         <v>24</v>
@@ -553,7 +557,7 @@
         <v>8.4787263999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -593,7 +597,7 @@
         <v>8.6881040999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -623,7 +627,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -653,7 +657,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -683,7 +687,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -713,7 +717,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -743,7 +747,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -773,7 +777,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -803,7 +807,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -833,7 +837,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -863,7 +867,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -893,7 +897,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -923,7 +927,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -953,7 +957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -983,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -1013,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>152</v>
@@ -1043,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -1073,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
